--- a/biology/Botanique/Bupleurum_salicifolium/Bupleurum_salicifolium.xlsx
+++ b/biology/Botanique/Bupleurum_salicifolium/Bupleurum_salicifolium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bupleurum salicifolium est une espèce de plantes herbacées vivaces appartenant au genre Bupleurum endémique de la Macaronésie.
 </t>
@@ -511,9 +523,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Bupleurum aciphyllum var. robustum Burch. (1970)[2]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Bupleurum aciphyllum var. robustum Burch. (1970)</t>
         </is>
       </c>
     </row>
@@ -541,7 +555,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce endémique de Madère, Porto Santo, El Hierro et La Gomera.
 </t>
@@ -572,14 +588,16 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (12 mars 2019)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (12 mars 2019) :
 sous-espèce Bupleurum salicifolium subsp. aciphyllum (Webb ex Parl.) Sund. &amp; Kunk.
 sous-espèce Bupleurum salicifolium subsp. salicifolium
-Selon The Plant List            (12 mars 2019)[1] :
+Selon The Plant List            (12 mars 2019) :
 sous-espèce Bupleurum salicifolium subsp. aciphyllum (Webb &amp; Berthel.) Sunding &amp; Kunkel
-Selon Tropicos                                           (12 mars 2019)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (12 mars 2019) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Bupleurum salicifolium subsp. aciphyllum (Webb &amp; Berthel.) Sunding &amp; Kunkel
 variété Bupleurum salicifolium var. angustifolium H. Wolff
 variété Bupleurum salicifolium var. lancifolium H. Wolff
